--- a/小组绩效/第1周小组绩效.xlsx
+++ b/小组绩效/第1周小组绩效.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\绩效\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Endless\软件需求分析原理与实践\SRA2023-G20\小组绩效\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768B35F-51BB-4152-8DC8-76663CDF53D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94158EF-2316-4C86-9D49-EC71D2C258D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="4620" windowWidth="22995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -179,18 +170,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,45 +208,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,275 +517,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
-        <v>95</v>
-      </c>
-      <c r="D5" s="6">
-        <v>96</v>
-      </c>
-      <c r="E5" s="6">
-        <v>97</v>
-      </c>
-      <c r="F5" s="6">
-        <v>96</v>
-      </c>
-      <c r="G5" s="6">
-        <v>98</v>
-      </c>
-      <c r="H5" s="6">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="2">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" s="2">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2">
+        <f>C5*0.4+D5*0.15+E5*0.15+F5*0.15+G5*0.15</f>
+        <v>86.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>98</v>
-      </c>
-      <c r="D6" s="6">
-        <v>95</v>
-      </c>
-      <c r="E6" s="6">
-        <v>96</v>
-      </c>
-      <c r="F6" s="6">
-        <v>95</v>
-      </c>
-      <c r="G6" s="6">
-        <v>96</v>
-      </c>
-      <c r="H6" s="6">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="2">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2">
+        <v>86</v>
+      </c>
+      <c r="F6" s="2">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2">
+        <v>86</v>
+      </c>
+      <c r="H6" s="2">
+        <f>C6*0.4+D6*0.15+E6*0.15+F6*0.15+G6*0.15</f>
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
-        <v>98</v>
-      </c>
-      <c r="D7" s="6">
-        <v>95</v>
-      </c>
-      <c r="E7" s="6">
-        <v>95</v>
-      </c>
-      <c r="F7" s="6">
-        <v>95</v>
-      </c>
-      <c r="G7" s="6">
-        <v>95</v>
-      </c>
-      <c r="H7" s="6">
-        <v>95.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="C7" s="2">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2">
+        <v>85</v>
+      </c>
+      <c r="G7" s="2">
+        <v>85</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H9" si="0">C7*0.4+D7*0.15+E7*0.15+F7*0.15+G7*0.15</f>
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6">
-        <v>96</v>
-      </c>
-      <c r="D8" s="6">
-        <v>94</v>
-      </c>
-      <c r="E8" s="6">
-        <v>94</v>
-      </c>
-      <c r="F8" s="6">
-        <v>95</v>
-      </c>
-      <c r="G8" s="6">
-        <v>94</v>
-      </c>
-      <c r="H8" s="6">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="2">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>84.949999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6">
-        <v>97</v>
-      </c>
-      <c r="D9" s="6">
-        <v>95</v>
-      </c>
-      <c r="E9" s="6">
-        <v>95</v>
-      </c>
-      <c r="F9" s="6">
-        <v>95</v>
-      </c>
-      <c r="G9" s="6">
-        <v>95</v>
-      </c>
-      <c r="H9" s="6">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="C9" s="2">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2">
+        <v>85</v>
+      </c>
+      <c r="E9" s="2">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>85.800000000000011</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
